--- a/metadata/cedar-histology/todo/TC - University of Florida (Histology).xlsx
+++ b/metadata/cedar-histology/todo/TC - University of Florida (Histology).xlsx
@@ -4,14 +4,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Non-Standard Value" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Missing Required Value" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Invalid Input Pattern" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_validation_data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Non-Standard Value" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Missing Required Value" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -415,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,27 +429,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dataset ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Field Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Current Value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>New Value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Dataset URL</t>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -456,6 +446,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dataset ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Current Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>New Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dataset URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HBM325.LVPR.537</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.LVPR.537</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HBM847.ZQZH.768</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM847.ZQZH.768</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E3"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -496,7 +584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/metadata/cedar-histology/todo/TC - University of Florida (Histology).xlsx
+++ b/metadata/cedar-histology/todo/TC - University of Florida (Histology).xlsx
@@ -4,17 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="_validation_data" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Non-Standard Value" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Missing Required Value" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Non-Standard Value" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Missing Required Value" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Invalid Input Pattern" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$3</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -418,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,14 +426,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Dataset ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Current Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>New Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dataset URL</t>
         </is>
       </c>
     </row>
@@ -446,104 +456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dataset ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Field Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Current Value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>New Value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Dataset URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM325.LVPR.537</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.LVPR.537</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM847.ZQZH.768</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM847.ZQZH.768</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E3"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -584,7 +496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
